--- a/tables/metrics_all_relationships_network_villages_prediction_reciprocated_ties.xlsx
+++ b/tables/metrics_all_relationships_network_villages_prediction_reciprocated_ties.xlsx
@@ -431,40 +431,40 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.4479166666666667</v>
+        <v>0.4388489208633093</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2">
-        <v>0.7013888888888888</v>
+        <v>0.6618705035971223</v>
       </c>
       <c r="I2">
-        <v>0.2986111111111111</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="J2">
-        <v>0.8055555555555556</v>
+        <v>0.7841726618705036</v>
       </c>
       <c r="K2">
-        <v>0.7829457364341085</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="L2">
-        <v>0.7534722222222222</v>
+        <v>0.7230215827338129</v>
       </c>
       <c r="M2">
-        <v>0.73992673992674</v>
+        <v>0.7049808429118773</v>
       </c>
     </row>
     <row r="3">
@@ -474,40 +474,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4431818181818182</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>0.7386363636363636</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="I3">
-        <v>0.2613636363636364</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="J3">
-        <v>0.8522727272727273</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="K3">
-        <v>0.8333333333333334</v>
+        <v>0.7910447761194029</v>
       </c>
       <c r="L3">
-        <v>0.7954545454545454</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="M3">
-        <v>0.7831325301204819</v>
+        <v>0.762589928057554</v>
       </c>
     </row>
     <row r="4">
@@ -517,40 +517,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>0.76</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="J4">
-        <v>0.8100000000000001</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L4">
-        <v>0.785</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="M4">
-        <v>0.7794871794871795</v>
+        <v>0.7605633802816901</v>
       </c>
     </row>
     <row r="5">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4138655462184874</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E5">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>0.6596638655462185</v>
+        <v>0.6990291262135923</v>
       </c>
       <c r="I5">
-        <v>0.3403361344537815</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="J5">
-        <v>0.8319327731092437</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="K5">
-        <v>0.7969543147208121</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="L5">
-        <v>0.7457983193277311</v>
+        <v>0.7669902912621359</v>
       </c>
       <c r="M5">
-        <v>0.7218390804597701</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4191176470588235</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>0.7205882352941176</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="I6">
-        <v>0.2794117647058824</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="J6">
-        <v>0.8823529411764706</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="K6">
-        <v>0.8596491228070176</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="L6">
-        <v>0.8014705882352942</v>
+        <v>0.84375</v>
       </c>
       <c r="M6">
-        <v>0.784</v>
+        <v>0.8314606741573034</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -655,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -670,16 +670,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>0.7857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M7">
-        <v>0.7272727272727273</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="8">
@@ -689,40 +689,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4724137931034483</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E8">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>0.7379310344827587</v>
+        <v>0.7477477477477478</v>
       </c>
       <c r="I8">
-        <v>0.2620689655172414</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="J8">
-        <v>0.7931034482758621</v>
+        <v>0.8018018018018018</v>
       </c>
       <c r="K8">
-        <v>0.781021897810219</v>
+        <v>0.7904761904761904</v>
       </c>
       <c r="L8">
-        <v>0.7655172413793103</v>
+        <v>0.7747747747747747</v>
       </c>
       <c r="M8">
-        <v>0.7588652482269503</v>
+        <v>0.7685185185185185</v>
       </c>
     </row>
     <row r="9">
@@ -732,40 +732,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.4504950495049505</v>
+        <v>0.4157894736842105</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>0.7623762376237624</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I9">
-        <v>0.2376237623762376</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J9">
-        <v>0.8613861386138614</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8860759493670886</v>
       </c>
       <c r="L9">
-        <v>0.8118811881188119</v>
+        <v>0.8210526315789474</v>
       </c>
       <c r="M9">
-        <v>0.8020833333333334</v>
+        <v>0.8045977011494253</v>
       </c>
     </row>
     <row r="10">
@@ -775,40 +775,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.4279661016949153</v>
+        <v>0.4267676767676767</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E10">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F10">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H10">
-        <v>0.6822033898305084</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="I10">
-        <v>0.3177966101694915</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="J10">
-        <v>0.826271186440678</v>
+        <v>0.8232323232323232</v>
       </c>
       <c r="K10">
-        <v>0.7970297029702971</v>
+        <v>0.7928994082840237</v>
       </c>
       <c r="L10">
-        <v>0.7542372881355932</v>
+        <v>0.75</v>
       </c>
       <c r="M10">
-        <v>0.7351598173515982</v>
+        <v>0.7302452316076294</v>
       </c>
     </row>
     <row r="11">
@@ -818,40 +818,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4324324324324325</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0.6216216216216216</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I11">
-        <v>0.3783783783783784</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J11">
-        <v>0.7567567567567568</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="K11">
-        <v>0.71875</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L11">
-        <v>0.6891891891891891</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="M11">
-        <v>0.6666666666666666</v>
+        <v>0.7246376811594203</v>
       </c>
     </row>
     <row r="12">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I12">
-        <v>0.3076923076923077</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="J12">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="K12">
-        <v>0.6923076923076923</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L12">
-        <v>0.6923076923076923</v>
+        <v>0.7019230769230769</v>
       </c>
       <c r="M12">
-        <v>0.6923076923076923</v>
+        <v>0.6868686868686869</v>
       </c>
     </row>
     <row r="13">
@@ -904,40 +904,40 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.425</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>0.675</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="I13">
-        <v>0.325</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="J13">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="K13">
-        <v>0.7941176470588235</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="L13">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="M13">
-        <v>0.7297297297297297</v>
+        <v>0.7478260869565218</v>
       </c>
     </row>
     <row r="14">
@@ -947,40 +947,40 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.396551724137931</v>
+        <v>0.42</v>
       </c>
       <c r="C14">
         <v>0.5</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="I14">
-        <v>0.3448275862068966</v>
+        <v>0.32</v>
       </c>
       <c r="J14">
-        <v>0.8620689655172413</v>
+        <v>0.84</v>
       </c>
       <c r="K14">
-        <v>0.8260869565217391</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L14">
-        <v>0.7586206896551724</v>
+        <v>0.76</v>
       </c>
       <c r="M14">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
     </row>
     <row r="15">
@@ -990,40 +990,40 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4107142857142857</v>
+        <v>0.484375</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>0.7142857142857143</v>
+        <v>0.734375</v>
       </c>
       <c r="I15">
-        <v>0.2857142857142857</v>
+        <v>0.265625</v>
       </c>
       <c r="J15">
-        <v>0.8928571428571429</v>
+        <v>0.765625</v>
       </c>
       <c r="K15">
-        <v>0.8695652173913043</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="L15">
-        <v>0.8035714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="M15">
-        <v>0.7843137254901961</v>
+        <v>0.746031746031746</v>
       </c>
     </row>
     <row r="16">
@@ -1033,40 +1033,40 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.4313725490196079</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>0.7254901960784313</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="I16">
-        <v>0.2745098039215687</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="J16">
-        <v>0.8627450980392157</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="K16">
-        <v>0.8409090909090909</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L16">
-        <v>0.7941176470588235</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="M16">
-        <v>0.7789473684210526</v>
+        <v>0.7518796992481203</v>
       </c>
     </row>
     <row r="17">
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.4155405405405405</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E17">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>0.6959459459459459</v>
+        <v>0.7154471544715447</v>
       </c>
       <c r="I17">
-        <v>0.3040540540540541</v>
+        <v>0.2845528455284553</v>
       </c>
       <c r="J17">
-        <v>0.8648648648648649</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="K17">
-        <v>0.8373983739837398</v>
+        <v>0.8380952380952381</v>
       </c>
       <c r="L17">
-        <v>0.7804054054054054</v>
+        <v>0.7886178861788617</v>
       </c>
       <c r="M17">
-        <v>0.7601476014760148</v>
+        <v>0.7719298245614035</v>
       </c>
     </row>
     <row r="18">
@@ -1119,40 +1119,40 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.4069767441860465</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
         <v>9</v>
       </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
       <c r="H18">
-        <v>0.6046511627906976</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I18">
-        <v>0.3953488372093023</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="J18">
-        <v>0.7906976744186046</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="K18">
-        <v>0.7428571428571429</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>0.6976744186046512</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="M18">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="19">
@@ -1162,40 +1162,40 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>0.85</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="I19">
-        <v>0.15</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="J19">
-        <v>0.75</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="K19">
-        <v>0.7727272727272727</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L19">
-        <v>0.8</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="M19">
-        <v>0.8095238095238095</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
   </sheetData>
